--- a/Documentos/introduccion/03 Roles de equipo.xlsx
+++ b/Documentos/introduccion/03 Roles de equipo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Git\UPQROO\SE-UPQROO\introduccion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Git\UPQROO\SIUPQROO\Documentos\introduccion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A2088E-F0A3-454B-8DA2-0CA022DF375B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4521C96-A456-4683-BF03-F6A64AE0A050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -987,7 +987,7 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1294,42 +1294,42 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C22" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>12</v>
@@ -1337,13 +1337,13 @@
     </row>
     <row r="24" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>12</v>
@@ -1351,13 +1351,13 @@
     </row>
     <row r="25" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>12</v>
@@ -1365,13 +1365,13 @@
     </row>
     <row r="26" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>12</v>
@@ -1379,13 +1379,13 @@
     </row>
     <row r="27" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>12</v>
@@ -1393,13 +1393,13 @@
     </row>
     <row r="28" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="B28" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>12</v>
